--- a/data/input/absenteeism_data_43.xlsx
+++ b/data/input/absenteeism_data_43.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39879</v>
+        <v>65008</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juliana Silveira</t>
+          <t>Leonardo Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>4865.38</v>
+        <v>8519.379999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98497</v>
+        <v>56065</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diogo Azevedo</t>
+          <t>Valentina Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>7556.64</v>
+        <v>11328.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4140</v>
+        <v>90137</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larissa Lopes</t>
+          <t>Pedro Lucas Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>4145.37</v>
+        <v>11309.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97887</v>
+        <v>82872</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcelo Vieira</t>
+          <t>Luigi Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,106 +584,106 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>4106.09</v>
+        <v>12163.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39737</v>
+        <v>80690</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Sophia Santos</t>
+          <t>Maria Vitória Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>9556.09</v>
+        <v>9788.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39642</v>
+        <v>88941</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thiago Almeida</t>
+          <t>Ana Sophia da Luz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>12045.56</v>
+        <v>4054.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54622</v>
+        <v>70892</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Guilherme Moura</t>
+          <t>Daniela Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>3836.89</v>
+        <v>5928.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55082</v>
+        <v>94421</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Caroline Vieira</t>
+          <t>Thales Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,31 +693,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>4531.74</v>
+        <v>8270.389999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87129</v>
+        <v>61115</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Fernando Rodrigues</t>
+          <t>Maysa Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>6825.79</v>
+        <v>10427.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34256</v>
+        <v>51552</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Souza</t>
+          <t>Dra. Ana Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>2731.52</v>
+        <v>11861.47</v>
       </c>
     </row>
   </sheetData>
